--- a/documentos/cotizador_burndown.xlsx
+++ b/documentos/cotizador_burndown.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\cotizadortunalitec\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\Uni\Uni\Decimo semestre\Proyecto integrador\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DBAC8EC-FEA2-45C5-87D1-352AF8D154BB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3E2239C-AF6A-4693-954C-5EEFC90EB44B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31485" yWindow="3810" windowWidth="17280" windowHeight="8970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -474,49 +474,49 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="16"/>
                       <c:pt idx="1">
-                        <c:v>0.66</c:v>
+                        <c:v>0.46</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>0.66</c:v>
+                        <c:v>0.46</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>0.66</c:v>
+                        <c:v>0.46</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>0.66</c:v>
+                        <c:v>0.46</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>0.66</c:v>
+                        <c:v>0.46</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>0.66</c:v>
+                        <c:v>0.46</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>0.66</c:v>
+                        <c:v>0.46</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>0.66</c:v>
+                        <c:v>0.46</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>0.66</c:v>
+                        <c:v>0.46</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>0.66</c:v>
+                        <c:v>0.46</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>0.66</c:v>
+                        <c:v>0.46</c:v>
                       </c:pt>
                       <c:pt idx="12">
-                        <c:v>0.66</c:v>
+                        <c:v>0.46</c:v>
                       </c:pt>
                       <c:pt idx="13">
-                        <c:v>0.66</c:v>
+                        <c:v>0.46</c:v>
                       </c:pt>
                       <c:pt idx="14">
-                        <c:v>0.66</c:v>
+                        <c:v>0.46</c:v>
                       </c:pt>
                       <c:pt idx="15">
-                        <c:v>0.66</c:v>
+                        <c:v>0.46</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -646,19 +646,19 @@
                         <c:v>1</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>1</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="5">
                         <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>2</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="7">
                         <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>0</c:v>
+                        <c:v>1</c:v>
                       </c:pt>
                       <c:pt idx="9">
                         <c:v>1</c:v>
@@ -667,19 +667,19 @@
                         <c:v>1</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>1</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="12">
                         <c:v>1</c:v>
                       </c:pt>
                       <c:pt idx="13">
-                        <c:v>1</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="14">
                         <c:v>1</c:v>
                       </c:pt>
                       <c:pt idx="15">
-                        <c:v>2</c:v>
+                        <c:v>1</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -798,22 +798,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>6</c:v>
@@ -822,13 +822,13 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>3</c:v>
@@ -837,13 +837,13 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -947,52 +947,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.34</c:v>
+                  <c:v>6.54</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.68</c:v>
+                  <c:v>6.08</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.02</c:v>
+                  <c:v>5.62</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.3599999999999994</c:v>
+                  <c:v>5.16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.6999999999999993</c:v>
+                  <c:v>4.7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.0399999999999991</c:v>
+                  <c:v>4.24</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.379999999999999</c:v>
+                  <c:v>3.7800000000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.7199999999999989</c:v>
+                  <c:v>3.3200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.0599999999999987</c:v>
+                  <c:v>2.8600000000000003</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.3999999999999986</c:v>
+                  <c:v>2.4000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.7399999999999984</c:v>
+                  <c:v>1.9400000000000004</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.0799999999999983</c:v>
+                  <c:v>1.4800000000000004</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.4199999999999982</c:v>
+                  <c:v>1.0200000000000005</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.75999999999999812</c:v>
+                  <c:v>0.5600000000000005</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9.999999999999809E-2</c:v>
+                  <c:v>0.10000000000000048</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1442,49 +1442,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="1">
-                  <c:v>0.66</c:v>
+                  <c:v>0.46</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.66</c:v>
+                  <c:v>0.46</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.66</c:v>
+                  <c:v>0.46</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.66</c:v>
+                  <c:v>0.46</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.66</c:v>
+                  <c:v>0.46</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.66</c:v>
+                  <c:v>0.46</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.66</c:v>
+                  <c:v>0.46</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.66</c:v>
+                  <c:v>0.46</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.66</c:v>
+                  <c:v>0.46</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.66</c:v>
+                  <c:v>0.46</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.66</c:v>
+                  <c:v>0.46</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.66</c:v>
+                  <c:v>0.46</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.66</c:v>
+                  <c:v>0.46</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.66</c:v>
+                  <c:v>0.46</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.66</c:v>
+                  <c:v>0.46</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1594,19 +1594,19 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1</c:v>
@@ -1615,19 +1615,19 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1754,22 +1754,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>6</c:v>
@@ -1778,13 +1778,13 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>3</c:v>
@@ -1793,13 +1793,13 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1903,52 +1903,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.34</c:v>
+                  <c:v>6.54</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.68</c:v>
+                  <c:v>6.08</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.02</c:v>
+                  <c:v>5.62</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.3599999999999994</c:v>
+                  <c:v>5.16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.6999999999999993</c:v>
+                  <c:v>4.7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.0399999999999991</c:v>
+                  <c:v>4.24</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.379999999999999</c:v>
+                  <c:v>3.7800000000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.7199999999999989</c:v>
+                  <c:v>3.3200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.0599999999999987</c:v>
+                  <c:v>2.8600000000000003</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.3999999999999986</c:v>
+                  <c:v>2.4000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.7399999999999984</c:v>
+                  <c:v>1.9400000000000004</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.0799999999999983</c:v>
+                  <c:v>1.4800000000000004</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.4199999999999982</c:v>
+                  <c:v>1.0200000000000005</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.75999999999999812</c:v>
+                  <c:v>0.5600000000000005</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9.999999999999809E-2</c:v>
+                  <c:v>0.10000000000000048</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3727,8 +3727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB23A665-88C7-4222-B918-AB1BED6AEF55}">
   <dimension ref="A2:Q6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3806,49 +3806,49 @@
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4">
-        <v>0.66</v>
+        <v>0.46</v>
       </c>
       <c r="D3" s="4">
-        <v>0.66</v>
+        <v>0.46</v>
       </c>
       <c r="E3" s="4">
-        <v>0.66</v>
+        <v>0.46</v>
       </c>
       <c r="F3" s="4">
-        <v>0.66</v>
+        <v>0.46</v>
       </c>
       <c r="G3" s="4">
-        <v>0.66</v>
+        <v>0.46</v>
       </c>
       <c r="H3" s="4">
-        <v>0.66</v>
+        <v>0.46</v>
       </c>
       <c r="I3" s="4">
-        <v>0.66</v>
+        <v>0.46</v>
       </c>
       <c r="J3" s="4">
-        <v>0.66</v>
+        <v>0.46</v>
       </c>
       <c r="K3" s="4">
-        <v>0.66</v>
+        <v>0.46</v>
       </c>
       <c r="L3" s="4">
-        <v>0.66</v>
+        <v>0.46</v>
       </c>
       <c r="M3" s="4">
-        <v>0.66</v>
+        <v>0.46</v>
       </c>
       <c r="N3" s="4">
-        <v>0.66</v>
+        <v>0.46</v>
       </c>
       <c r="O3" s="4">
-        <v>0.66</v>
+        <v>0.46</v>
       </c>
       <c r="P3" s="4">
-        <v>0.66</v>
+        <v>0.46</v>
       </c>
       <c r="Q3" s="4">
-        <v>0.66</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
@@ -3862,44 +3862,44 @@
       <c r="D4" s="4">
         <v>0</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>1</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
         <v>1</v>
       </c>
-      <c r="G4" s="5">
+      <c r="K4" s="4">
+        <v>1</v>
+      </c>
+      <c r="L4" s="4">
+        <v>1</v>
+      </c>
+      <c r="M4" s="4">
         <v>0</v>
       </c>
-      <c r="H4" s="5">
-        <v>2</v>
-      </c>
-      <c r="I4" s="5">
+      <c r="N4" s="4">
+        <v>1</v>
+      </c>
+      <c r="O4" s="4">
         <v>0</v>
       </c>
-      <c r="J4" s="6">
-        <v>0</v>
-      </c>
-      <c r="K4" s="12">
+      <c r="P4" s="4">
         <v>1</v>
       </c>
-      <c r="L4" s="12">
+      <c r="Q4" s="4">
         <v>1</v>
-      </c>
-      <c r="M4" s="12">
-        <v>1</v>
-      </c>
-      <c r="N4" s="12">
-        <v>1</v>
-      </c>
-      <c r="O4" s="12">
-        <v>1</v>
-      </c>
-      <c r="P4" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="12">
-        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3907,27 +3907,27 @@
         <v>0</v>
       </c>
       <c r="B5" s="4">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C5" s="4">
         <f>B5-C4</f>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ref="D5:Q5" si="0">C5-D4</f>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E5" s="4">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F5" s="4">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G5" s="4">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H5" s="4">
         <f t="shared" si="0"/>
@@ -3939,15 +3939,15 @@
       </c>
       <c r="J5" s="4">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K5" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L5" s="4">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M5" s="4">
         <f t="shared" si="0"/>
@@ -3959,15 +3959,15 @@
       </c>
       <c r="O5" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P5" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5" s="4">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3975,67 +3975,67 @@
         <v>1</v>
       </c>
       <c r="B6" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C6" s="1">
         <f>B6-C3</f>
-        <v>9.34</v>
+        <v>6.54</v>
       </c>
       <c r="D6" s="1">
         <f>C6-D3</f>
-        <v>8.68</v>
+        <v>6.08</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" ref="E6:J6" si="1">D6-E3</f>
-        <v>8.02</v>
+        <v>5.62</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" si="1"/>
-        <v>7.3599999999999994</v>
+        <v>5.16</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" si="1"/>
-        <v>6.6999999999999993</v>
+        <v>4.7</v>
       </c>
       <c r="H6" s="1">
         <f t="shared" si="1"/>
-        <v>6.0399999999999991</v>
+        <v>4.24</v>
       </c>
       <c r="I6" s="1">
         <f t="shared" si="1"/>
-        <v>5.379999999999999</v>
+        <v>3.7800000000000002</v>
       </c>
       <c r="J6" s="1">
         <f t="shared" si="1"/>
-        <v>4.7199999999999989</v>
+        <v>3.3200000000000003</v>
       </c>
       <c r="K6" s="1">
         <f t="shared" ref="K6" si="2">J6-K3</f>
-        <v>4.0599999999999987</v>
+        <v>2.8600000000000003</v>
       </c>
       <c r="L6" s="1">
         <f t="shared" ref="L6" si="3">K6-L3</f>
-        <v>3.3999999999999986</v>
+        <v>2.4000000000000004</v>
       </c>
       <c r="M6" s="1">
         <f t="shared" ref="M6" si="4">L6-M3</f>
-        <v>2.7399999999999984</v>
+        <v>1.9400000000000004</v>
       </c>
       <c r="N6" s="1">
         <f t="shared" ref="N6" si="5">M6-N3</f>
-        <v>2.0799999999999983</v>
+        <v>1.4800000000000004</v>
       </c>
       <c r="O6" s="1">
         <f t="shared" ref="O6" si="6">N6-O3</f>
-        <v>1.4199999999999982</v>
+        <v>1.0200000000000005</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" ref="P6" si="7">O6-P3</f>
-        <v>0.75999999999999812</v>
+        <v>0.5600000000000005</v>
       </c>
       <c r="Q6" s="1">
         <f t="shared" ref="Q6" si="8">P6-Q3</f>
-        <v>9.999999999999809E-2</v>
+        <v>0.10000000000000048</v>
       </c>
     </row>
   </sheetData>

--- a/documentos/cotizador_burndown.xlsx
+++ b/documentos/cotizador_burndown.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\Uni\Uni\Decimo semestre\Proyecto integrador\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3E2239C-AF6A-4693-954C-5EEFC90EB44B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B11B9B-8245-497B-84B8-E04778A2D558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31485" yWindow="3810" windowWidth="17280" windowHeight="8970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -474,49 +474,49 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="16"/>
                       <c:pt idx="1">
-                        <c:v>0.46</c:v>
+                        <c:v>0.66</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>0.46</c:v>
+                        <c:v>0.66</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>0.46</c:v>
+                        <c:v>0.66</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>0.46</c:v>
+                        <c:v>0.66</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>0.46</c:v>
+                        <c:v>0.66</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>0.46</c:v>
+                        <c:v>0.66</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>0.46</c:v>
+                        <c:v>0.66</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>0.46</c:v>
+                        <c:v>0.66</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>0.46</c:v>
+                        <c:v>0.66</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>0.46</c:v>
+                        <c:v>0.66</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>0.46</c:v>
+                        <c:v>0.66</c:v>
                       </c:pt>
                       <c:pt idx="12">
-                        <c:v>0.46</c:v>
+                        <c:v>0.66</c:v>
                       </c:pt>
                       <c:pt idx="13">
-                        <c:v>0.46</c:v>
+                        <c:v>0.66</c:v>
                       </c:pt>
                       <c:pt idx="14">
-                        <c:v>0.46</c:v>
+                        <c:v>0.66</c:v>
                       </c:pt>
                       <c:pt idx="15">
-                        <c:v>0.46</c:v>
+                        <c:v>0.66</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -643,13 +643,13 @@
                         <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>1</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="4">
                         <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>0</c:v>
+                        <c:v>1</c:v>
                       </c:pt>
                       <c:pt idx="6">
                         <c:v>0</c:v>
@@ -658,7 +658,7 @@
                         <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>1</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="9">
                         <c:v>1</c:v>
@@ -667,7 +667,7 @@
                         <c:v>1</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>0</c:v>
+                        <c:v>1</c:v>
                       </c:pt>
                       <c:pt idx="12">
                         <c:v>1</c:v>
@@ -676,10 +676,10 @@
                         <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="14">
-                        <c:v>1</c:v>
+                        <c:v>2</c:v>
                       </c:pt>
                       <c:pt idx="15">
-                        <c:v>1</c:v>
+                        <c:v>2</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -798,52 +798,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="11">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="12">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="13">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -947,52 +947,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.54</c:v>
+                  <c:v>9.34</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.08</c:v>
+                  <c:v>8.68</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.62</c:v>
+                  <c:v>8.02</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.16</c:v>
+                  <c:v>7.3599999999999994</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.7</c:v>
+                  <c:v>6.6999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.24</c:v>
+                  <c:v>6.0399999999999991</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.7800000000000002</c:v>
+                  <c:v>5.379999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.3200000000000003</c:v>
+                  <c:v>4.7199999999999989</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.8600000000000003</c:v>
+                  <c:v>4.0599999999999987</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.4000000000000004</c:v>
+                  <c:v>3.3999999999999986</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.9400000000000004</c:v>
+                  <c:v>2.7399999999999984</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.4800000000000004</c:v>
+                  <c:v>2.0799999999999983</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.0200000000000005</c:v>
+                  <c:v>1.4199999999999982</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.5600000000000005</c:v>
+                  <c:v>0.75999999999999812</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.10000000000000048</c:v>
+                  <c:v>9.999999999999809E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1442,49 +1442,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="1">
-                  <c:v>0.46</c:v>
+                  <c:v>0.66</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.46</c:v>
+                  <c:v>0.66</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.46</c:v>
+                  <c:v>0.66</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.46</c:v>
+                  <c:v>0.66</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.46</c:v>
+                  <c:v>0.66</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.46</c:v>
+                  <c:v>0.66</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.46</c:v>
+                  <c:v>0.66</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.46</c:v>
+                  <c:v>0.66</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.46</c:v>
+                  <c:v>0.66</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.46</c:v>
+                  <c:v>0.66</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.46</c:v>
+                  <c:v>0.66</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.46</c:v>
+                  <c:v>0.66</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.46</c:v>
+                  <c:v>0.66</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.46</c:v>
+                  <c:v>0.66</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.46</c:v>
+                  <c:v>0.66</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1591,13 +1591,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -1606,7 +1606,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1</c:v>
@@ -1615,7 +1615,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>1</c:v>
@@ -1624,10 +1624,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1754,52 +1754,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="11">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="12">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="13">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1903,52 +1903,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.54</c:v>
+                  <c:v>9.34</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.08</c:v>
+                  <c:v>8.68</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.62</c:v>
+                  <c:v>8.02</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.16</c:v>
+                  <c:v>7.3599999999999994</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.7</c:v>
+                  <c:v>6.6999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.24</c:v>
+                  <c:v>6.0399999999999991</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.7800000000000002</c:v>
+                  <c:v>5.379999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.3200000000000003</c:v>
+                  <c:v>4.7199999999999989</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.8600000000000003</c:v>
+                  <c:v>4.0599999999999987</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.4000000000000004</c:v>
+                  <c:v>3.3999999999999986</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.9400000000000004</c:v>
+                  <c:v>2.7399999999999984</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.4800000000000004</c:v>
+                  <c:v>2.0799999999999983</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.0200000000000005</c:v>
+                  <c:v>1.4199999999999982</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.5600000000000005</c:v>
+                  <c:v>0.75999999999999812</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.10000000000000048</c:v>
+                  <c:v>9.999999999999809E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3728,7 +3728,7 @@
   <dimension ref="A2:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3806,49 +3806,49 @@
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4">
-        <v>0.46</v>
+        <v>0.66</v>
       </c>
       <c r="D3" s="4">
-        <v>0.46</v>
+        <v>0.66</v>
       </c>
       <c r="E3" s="4">
-        <v>0.46</v>
+        <v>0.66</v>
       </c>
       <c r="F3" s="4">
-        <v>0.46</v>
+        <v>0.66</v>
       </c>
       <c r="G3" s="4">
-        <v>0.46</v>
+        <v>0.66</v>
       </c>
       <c r="H3" s="4">
-        <v>0.46</v>
+        <v>0.66</v>
       </c>
       <c r="I3" s="4">
-        <v>0.46</v>
+        <v>0.66</v>
       </c>
       <c r="J3" s="4">
-        <v>0.46</v>
+        <v>0.66</v>
       </c>
       <c r="K3" s="4">
-        <v>0.46</v>
+        <v>0.66</v>
       </c>
       <c r="L3" s="4">
-        <v>0.46</v>
+        <v>0.66</v>
       </c>
       <c r="M3" s="4">
-        <v>0.46</v>
+        <v>0.66</v>
       </c>
       <c r="N3" s="4">
-        <v>0.46</v>
+        <v>0.66</v>
       </c>
       <c r="O3" s="4">
-        <v>0.46</v>
+        <v>0.66</v>
       </c>
       <c r="P3" s="4">
-        <v>0.46</v>
+        <v>0.66</v>
       </c>
       <c r="Q3" s="4">
-        <v>0.46</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
@@ -3862,44 +3862,44 @@
       <c r="D4" s="4">
         <v>0</v>
       </c>
-      <c r="E4" s="4">
-        <v>1</v>
+      <c r="E4" s="5">
+        <v>0</v>
       </c>
       <c r="F4" s="4">
         <v>0</v>
       </c>
-      <c r="G4" s="4">
-        <v>0</v>
+      <c r="G4" s="5">
+        <v>1</v>
       </c>
       <c r="H4" s="4">
         <v>0</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="5">
         <v>0</v>
       </c>
       <c r="J4" s="4">
-        <v>1</v>
-      </c>
-      <c r="K4" s="4">
+        <v>0</v>
+      </c>
+      <c r="K4" s="5">
         <v>1</v>
       </c>
       <c r="L4" s="4">
         <v>1</v>
       </c>
-      <c r="M4" s="4">
-        <v>0</v>
+      <c r="M4" s="5">
+        <v>1</v>
       </c>
       <c r="N4" s="4">
         <v>1</v>
       </c>
-      <c r="O4" s="4">
+      <c r="O4" s="5">
         <v>0</v>
       </c>
       <c r="P4" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="4">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3907,67 +3907,67 @@
         <v>0</v>
       </c>
       <c r="B5" s="4">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C5" s="4">
         <f>B5-C4</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ref="D5:Q5" si="0">C5-D4</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E5" s="4">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F5" s="4">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G5" s="4">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H5" s="4">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I5" s="4">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J5" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K5" s="4">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L5" s="4">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M5" s="4">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N5" s="4">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O5" s="4">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P5" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q5" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3975,67 +3975,67 @@
         <v>1</v>
       </c>
       <c r="B6" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C6" s="1">
         <f>B6-C3</f>
-        <v>6.54</v>
+        <v>9.34</v>
       </c>
       <c r="D6" s="1">
         <f>C6-D3</f>
-        <v>6.08</v>
+        <v>8.68</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" ref="E6:J6" si="1">D6-E3</f>
-        <v>5.62</v>
+        <v>8.02</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" si="1"/>
-        <v>5.16</v>
+        <v>7.3599999999999994</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" si="1"/>
-        <v>4.7</v>
+        <v>6.6999999999999993</v>
       </c>
       <c r="H6" s="1">
         <f t="shared" si="1"/>
-        <v>4.24</v>
+        <v>6.0399999999999991</v>
       </c>
       <c r="I6" s="1">
         <f t="shared" si="1"/>
-        <v>3.7800000000000002</v>
+        <v>5.379999999999999</v>
       </c>
       <c r="J6" s="1">
         <f t="shared" si="1"/>
-        <v>3.3200000000000003</v>
+        <v>4.7199999999999989</v>
       </c>
       <c r="K6" s="1">
         <f t="shared" ref="K6" si="2">J6-K3</f>
-        <v>2.8600000000000003</v>
+        <v>4.0599999999999987</v>
       </c>
       <c r="L6" s="1">
         <f t="shared" ref="L6" si="3">K6-L3</f>
-        <v>2.4000000000000004</v>
+        <v>3.3999999999999986</v>
       </c>
       <c r="M6" s="1">
         <f t="shared" ref="M6" si="4">L6-M3</f>
-        <v>1.9400000000000004</v>
+        <v>2.7399999999999984</v>
       </c>
       <c r="N6" s="1">
         <f t="shared" ref="N6" si="5">M6-N3</f>
-        <v>1.4800000000000004</v>
+        <v>2.0799999999999983</v>
       </c>
       <c r="O6" s="1">
         <f t="shared" ref="O6" si="6">N6-O3</f>
-        <v>1.0200000000000005</v>
+        <v>1.4199999999999982</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" ref="P6" si="7">O6-P3</f>
-        <v>0.5600000000000005</v>
+        <v>0.75999999999999812</v>
       </c>
       <c r="Q6" s="1">
         <f t="shared" ref="Q6" si="8">P6-Q3</f>
-        <v>0.10000000000000048</v>
+        <v>9.999999999999809E-2</v>
       </c>
     </row>
   </sheetData>

--- a/documentos/cotizador_burndown.xlsx
+++ b/documentos/cotizador_burndown.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\Uni\Uni\Decimo semestre\Proyecto integrador\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\Uni\Decimo semestre\Proyecto integrador\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3E2239C-AF6A-4693-954C-5EEFC90EB44B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCDB0239-208E-4B70-815A-1498994DA94D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31485" yWindow="3810" windowWidth="17280" windowHeight="8970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -474,49 +474,49 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="16"/>
                       <c:pt idx="1">
-                        <c:v>0.46</c:v>
+                        <c:v>0.66</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>0.46</c:v>
+                        <c:v>0.66</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>0.46</c:v>
+                        <c:v>0.66</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>0.46</c:v>
+                        <c:v>0.66</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>0.46</c:v>
+                        <c:v>0.66</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>0.46</c:v>
+                        <c:v>0.66</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>0.46</c:v>
+                        <c:v>0.66</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>0.46</c:v>
+                        <c:v>0.66</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>0.46</c:v>
+                        <c:v>0.66</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>0.46</c:v>
+                        <c:v>0.66</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>0.46</c:v>
+                        <c:v>0.66</c:v>
                       </c:pt>
                       <c:pt idx="12">
-                        <c:v>0.46</c:v>
+                        <c:v>0.66</c:v>
                       </c:pt>
                       <c:pt idx="13">
-                        <c:v>0.46</c:v>
+                        <c:v>0.66</c:v>
                       </c:pt>
                       <c:pt idx="14">
-                        <c:v>0.46</c:v>
+                        <c:v>0.66</c:v>
                       </c:pt>
                       <c:pt idx="15">
-                        <c:v>0.46</c:v>
+                        <c:v>0.66</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -643,13 +643,13 @@
                         <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>1</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="4">
                         <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>0</c:v>
+                        <c:v>1</c:v>
                       </c:pt>
                       <c:pt idx="6">
                         <c:v>0</c:v>
@@ -658,7 +658,7 @@
                         <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>1</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="9">
                         <c:v>1</c:v>
@@ -667,19 +667,19 @@
                         <c:v>1</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>0</c:v>
+                        <c:v>1</c:v>
                       </c:pt>
                       <c:pt idx="12">
                         <c:v>1</c:v>
                       </c:pt>
                       <c:pt idx="13">
-                        <c:v>0</c:v>
+                        <c:v>1</c:v>
                       </c:pt>
                       <c:pt idx="14">
-                        <c:v>1</c:v>
+                        <c:v>2</c:v>
                       </c:pt>
                       <c:pt idx="15">
-                        <c:v>1</c:v>
+                        <c:v>2</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -798,49 +798,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="11">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="12">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="13">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0</c:v>
@@ -947,52 +947,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.54</c:v>
+                  <c:v>9.34</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.08</c:v>
+                  <c:v>8.68</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.62</c:v>
+                  <c:v>8.02</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.16</c:v>
+                  <c:v>7.3599999999999994</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.7</c:v>
+                  <c:v>6.6999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.24</c:v>
+                  <c:v>6.0399999999999991</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.7800000000000002</c:v>
+                  <c:v>5.379999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.3200000000000003</c:v>
+                  <c:v>4.7199999999999989</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.8600000000000003</c:v>
+                  <c:v>4.0599999999999987</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.4000000000000004</c:v>
+                  <c:v>3.3999999999999986</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.9400000000000004</c:v>
+                  <c:v>2.7399999999999984</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.4800000000000004</c:v>
+                  <c:v>2.0799999999999983</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.0200000000000005</c:v>
+                  <c:v>1.4199999999999982</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.5600000000000005</c:v>
+                  <c:v>0.75999999999999812</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.10000000000000048</c:v>
+                  <c:v>9.999999999999809E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1442,49 +1442,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="1">
-                  <c:v>0.46</c:v>
+                  <c:v>0.66</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.46</c:v>
+                  <c:v>0.66</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.46</c:v>
+                  <c:v>0.66</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.46</c:v>
+                  <c:v>0.66</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.46</c:v>
+                  <c:v>0.66</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.46</c:v>
+                  <c:v>0.66</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.46</c:v>
+                  <c:v>0.66</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.46</c:v>
+                  <c:v>0.66</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.46</c:v>
+                  <c:v>0.66</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.46</c:v>
+                  <c:v>0.66</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.46</c:v>
+                  <c:v>0.66</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.46</c:v>
+                  <c:v>0.66</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.46</c:v>
+                  <c:v>0.66</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.46</c:v>
+                  <c:v>0.66</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.46</c:v>
+                  <c:v>0.66</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1591,13 +1591,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -1606,7 +1606,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1</c:v>
@@ -1615,19 +1615,19 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1754,49 +1754,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="11">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="12">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="13">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0</c:v>
@@ -1903,52 +1903,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.54</c:v>
+                  <c:v>9.34</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.08</c:v>
+                  <c:v>8.68</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.62</c:v>
+                  <c:v>8.02</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.16</c:v>
+                  <c:v>7.3599999999999994</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.7</c:v>
+                  <c:v>6.6999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.24</c:v>
+                  <c:v>6.0399999999999991</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.7800000000000002</c:v>
+                  <c:v>5.379999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.3200000000000003</c:v>
+                  <c:v>4.7199999999999989</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.8600000000000003</c:v>
+                  <c:v>4.0599999999999987</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.4000000000000004</c:v>
+                  <c:v>3.3999999999999986</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.9400000000000004</c:v>
+                  <c:v>2.7399999999999984</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.4800000000000004</c:v>
+                  <c:v>2.0799999999999983</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.0200000000000005</c:v>
+                  <c:v>1.4199999999999982</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.5600000000000005</c:v>
+                  <c:v>0.75999999999999812</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.10000000000000048</c:v>
+                  <c:v>9.999999999999809E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3727,8 +3727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB23A665-88C7-4222-B918-AB1BED6AEF55}">
   <dimension ref="A2:Q6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3806,49 +3806,49 @@
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4">
-        <v>0.46</v>
+        <v>0.66</v>
       </c>
       <c r="D3" s="4">
-        <v>0.46</v>
+        <v>0.66</v>
       </c>
       <c r="E3" s="4">
-        <v>0.46</v>
+        <v>0.66</v>
       </c>
       <c r="F3" s="4">
-        <v>0.46</v>
+        <v>0.66</v>
       </c>
       <c r="G3" s="4">
-        <v>0.46</v>
+        <v>0.66</v>
       </c>
       <c r="H3" s="4">
-        <v>0.46</v>
+        <v>0.66</v>
       </c>
       <c r="I3" s="4">
-        <v>0.46</v>
+        <v>0.66</v>
       </c>
       <c r="J3" s="4">
-        <v>0.46</v>
+        <v>0.66</v>
       </c>
       <c r="K3" s="4">
-        <v>0.46</v>
+        <v>0.66</v>
       </c>
       <c r="L3" s="4">
-        <v>0.46</v>
+        <v>0.66</v>
       </c>
       <c r="M3" s="4">
-        <v>0.46</v>
+        <v>0.66</v>
       </c>
       <c r="N3" s="4">
-        <v>0.46</v>
+        <v>0.66</v>
       </c>
       <c r="O3" s="4">
-        <v>0.46</v>
+        <v>0.66</v>
       </c>
       <c r="P3" s="4">
-        <v>0.46</v>
+        <v>0.66</v>
       </c>
       <c r="Q3" s="4">
-        <v>0.46</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
@@ -3862,44 +3862,44 @@
       <c r="D4" s="4">
         <v>0</v>
       </c>
-      <c r="E4" s="4">
-        <v>1</v>
+      <c r="E4" s="5">
+        <v>0</v>
       </c>
       <c r="F4" s="4">
         <v>0</v>
       </c>
-      <c r="G4" s="4">
-        <v>0</v>
+      <c r="G4" s="5">
+        <v>1</v>
       </c>
       <c r="H4" s="4">
         <v>0</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="5">
         <v>0</v>
       </c>
       <c r="J4" s="4">
-        <v>1</v>
-      </c>
-      <c r="K4" s="4">
+        <v>0</v>
+      </c>
+      <c r="K4" s="5">
         <v>1</v>
       </c>
       <c r="L4" s="4">
         <v>1</v>
       </c>
-      <c r="M4" s="4">
-        <v>0</v>
+      <c r="M4" s="5">
+        <v>1</v>
       </c>
       <c r="N4" s="4">
         <v>1</v>
       </c>
-      <c r="O4" s="4">
-        <v>0</v>
+      <c r="O4" s="5">
+        <v>1</v>
       </c>
       <c r="P4" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="4">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3907,63 +3907,63 @@
         <v>0</v>
       </c>
       <c r="B5" s="4">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C5" s="4">
         <f>B5-C4</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ref="D5:Q5" si="0">C5-D4</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E5" s="4">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F5" s="4">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G5" s="4">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H5" s="4">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I5" s="4">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J5" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K5" s="4">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L5" s="4">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M5" s="4">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N5" s="4">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O5" s="4">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P5" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q5" s="4">
         <f t="shared" si="0"/>
@@ -3975,67 +3975,67 @@
         <v>1</v>
       </c>
       <c r="B6" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C6" s="1">
         <f>B6-C3</f>
-        <v>6.54</v>
+        <v>9.34</v>
       </c>
       <c r="D6" s="1">
         <f>C6-D3</f>
-        <v>6.08</v>
+        <v>8.68</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" ref="E6:J6" si="1">D6-E3</f>
-        <v>5.62</v>
+        <v>8.02</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" si="1"/>
-        <v>5.16</v>
+        <v>7.3599999999999994</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" si="1"/>
-        <v>4.7</v>
+        <v>6.6999999999999993</v>
       </c>
       <c r="H6" s="1">
         <f t="shared" si="1"/>
-        <v>4.24</v>
+        <v>6.0399999999999991</v>
       </c>
       <c r="I6" s="1">
         <f t="shared" si="1"/>
-        <v>3.7800000000000002</v>
+        <v>5.379999999999999</v>
       </c>
       <c r="J6" s="1">
         <f t="shared" si="1"/>
-        <v>3.3200000000000003</v>
+        <v>4.7199999999999989</v>
       </c>
       <c r="K6" s="1">
         <f t="shared" ref="K6" si="2">J6-K3</f>
-        <v>2.8600000000000003</v>
+        <v>4.0599999999999987</v>
       </c>
       <c r="L6" s="1">
         <f t="shared" ref="L6" si="3">K6-L3</f>
-        <v>2.4000000000000004</v>
+        <v>3.3999999999999986</v>
       </c>
       <c r="M6" s="1">
         <f t="shared" ref="M6" si="4">L6-M3</f>
-        <v>1.9400000000000004</v>
+        <v>2.7399999999999984</v>
       </c>
       <c r="N6" s="1">
         <f t="shared" ref="N6" si="5">M6-N3</f>
-        <v>1.4800000000000004</v>
+        <v>2.0799999999999983</v>
       </c>
       <c r="O6" s="1">
         <f t="shared" ref="O6" si="6">N6-O3</f>
-        <v>1.0200000000000005</v>
+        <v>1.4199999999999982</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" ref="P6" si="7">O6-P3</f>
-        <v>0.5600000000000005</v>
+        <v>0.75999999999999812</v>
       </c>
       <c r="Q6" s="1">
         <f t="shared" ref="Q6" si="8">P6-Q3</f>
-        <v>0.10000000000000048</v>
+        <v>9.999999999999809E-2</v>
       </c>
     </row>
   </sheetData>
